--- a/artfynd/A 13741-2023.xlsx
+++ b/artfynd/A 13741-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,119 +790,6 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>111895085</v>
-      </c>
-      <c r="B3" t="n">
-        <v>90678</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4366</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Skarp dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Hydnellum peckii</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Kratte masugn (Kratte masugn), Gstr</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>576346.0152053731</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6702381.515453912</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Gävleborg</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Hofors</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Gästrikland</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Torsåker</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>17:38</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>17:38</t>
-        </is>
-      </c>
-      <c r="AD3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13741-2023.xlsx
+++ b/artfynd/A 13741-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +790,119 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>111895085</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Kratte masugn (Kratte masugn), Gstr</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>576346.0152053731</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6702381.515453912</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13741-2023.xlsx
+++ b/artfynd/A 13741-2023.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>576353.9217347448</v>
+        <v>576354</v>
       </c>
       <c r="R2" t="n">
-        <v>6702381.6820867</v>
+        <v>6702382</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -753,19 +753,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -833,10 +823,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>576346.0152053731</v>
+        <v>576346</v>
       </c>
       <c r="R3" t="n">
-        <v>6702381.515453912</v>
+        <v>6702382</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>

--- a/artfynd/A 13741-2023.xlsx
+++ b/artfynd/A 13741-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111896649</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>111895085</v>
       </c>
       <c r="B3" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 13741-2023.xlsx
+++ b/artfynd/A 13741-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111896649</v>
       </c>
       <c r="B2" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>111895085</v>
       </c>
       <c r="B3" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
